--- a/biology/Zoologie/Gyrinidae/Gyrinidae.xlsx
+++ b/biology/Zoologie/Gyrinidae/Gyrinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gyrinidae (les gyrins (/ZiRe~/), parfois nommés tourniquets), sont une famille d'insectes de l'ordre des coléoptères (Coleoptera). Ils sont dulçaquicoles.
 </t>
@@ -511,11 +523,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme de gyrin est un emprunt au latin gyrinus, terme qui désignait le « têtard » qui dérivait de gyrus.
 Ce dernier terme est lui-même issu du grec ancien γυρι̃νος qui signifie cercle ou rond.
-Ces insectes sont nommés ainsi car ils avancent souvent en suivant des trajectoires circulaires et/ou ils produisent des ondes circulaires à la surface de l'eau[1].
+Ces insectes sont nommés ainsi car ils avancent souvent en suivant des trajectoires circulaires et/ou ils produisent des ondes circulaires à la surface de l'eau.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gyrinidae Latreille, 1810 (1.000 espèces)
 Fossiles
